--- a/candidate/store_excel/manoj1234.xlsx
+++ b/candidate/store_excel/manoj1234.xlsx
@@ -20,45 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Candidate Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Candidate Email</t>
+    <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile Number</t>
   </si>
   <si>
-    <t xml:space="preserve">boB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swati.tripathi@mcmcg.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arvnd chaudhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arvind.chaudhary@botshreyasi.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prakhar Bhadola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0902ec181049@rjit.ac.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHANI MAURYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauryashani223@gmail.com</t>
+    <t xml:space="preserve">Tuhin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuhin.b@botshreyasi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devesh.s@botshreyasi.com</t>
   </si>
 </sst>
 </file>
@@ -68,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,13 +72,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -156,16 +131,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,90 +157,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:E1153"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.47"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>9851221801</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>7840821007</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="0" t="n">
-        <v>9717952020</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>9919718984</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>9137695071</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>8949841784</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="tuhin.b@botshreyasi.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="devesh.s@botshreyasi.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
